--- a/Results.xlsx
+++ b/Results.xlsx
@@ -1,43 +1,43 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -45,26 +45,94 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+  <cellXfs count="2">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -79,44 +147,44 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="1F497D"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="EEECE1"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4F81BD"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="C0504D"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="9BBB59"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="8064A2"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="4BACC6"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="F79646"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="0000FF"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -143,15 +211,14 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -178,7 +245,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -190,153 +256,402 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
-                <a:tint val="67000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
-                <a:tint val="73000"/>
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
-                <a:tint val="81000"/>
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
-                <a:lumMod val="102000"/>
-                <a:tint val="94000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
-                <a:lumMod val="100000"/>
-                <a:shade val="100000"/>
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="80000">
+              <a:schemeClr val="phClr">
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
-                <a:shade val="78000"/>
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
+                <a:alpha val="35000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:tint val="95000"/>
-            <a:satMod val="170000"/>
-          </a:schemeClr>
-        </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="93000"/>
-                <a:satMod val="150000"/>
-                <a:shade val="98000"/>
-                <a:lumMod val="102000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:tint val="98000"/>
-                <a:satMod val="130000"/>
-                <a:shade val="90000"/>
-                <a:lumMod val="103000"/>
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="63000"/>
-                <a:satMod val="120000"/>
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
   <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:V2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Filename</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Network</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Demand Type</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Demand mode</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Exp. Time</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Exp. Time2</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>TLS Type</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Agent Type</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Features</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Reward</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Travel Time</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Waiting Time</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>Speed</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>Stops</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>Epsilon Time</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>Min Replay</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>Max Replay</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>Time</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>Train: Actions Per Intersection</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>Train: Rewards Per Intersection</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>Test: Actions Per Intersection</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>Test: Rewards Per Intersection</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>20210409133901.524084</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>grid</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>constant</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>step</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>5000000</t>
+        </is>
+      </c>
+      <c r="F2" t="n">
+        <v>83333.33333333333</v>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>centralized</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>DQN</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>(speed, count)</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>reward_min_speed_delta</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>35.062 ± 35.062</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>11.211 ± 11.211</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>7.230 ± 7.230</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>0.605 ± 0.605</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>45000</t>
+        </is>
+      </c>
+      <c r="P2" t="inlineStr">
+        <is>
+          <t>5000</t>
+        </is>
+      </c>
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>50000</t>
+        </is>
+      </c>
+      <c r="R2" t="inlineStr">
+        <is>
+          <t>0:00:00</t>
+        </is>
+      </c>
+      <c r="S2">
+        <f>HYPERLINK("data/plots/20210409133901.524084/train/actions_per_intersection.png", "Image")</f>
+        <v/>
+      </c>
+      <c r="T2">
+        <f>HYPERLINK("data/plots/20210409133901.524084/train/rewards_per_intersection.png", "Image")</f>
+        <v/>
+      </c>
+      <c r="U2">
+        <f>HYPERLINK("data/plots/20210409133901.524084/test/actions_per_intersection.png", "Image")</f>
+        <v/>
+      </c>
+      <c r="V2">
+        <f>HYPERLINK("data/plots/20210409133901.524084/test/rewards_per_intersection.png", "Image")</f>
+        <v/>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/Results.xlsx
+++ b/Results.xlsx
@@ -1,32 +1,171 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ulisboa-my.sharepoint.com/personal/ist187687_tecnico_ulisboa_pt/Documents/Tese/ILU-RL/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="2" documentId="11_486F4AFFC7E94F9498983E7C01C603827A06D21B" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{2B5F32C9-1C5E-4B27-8642-127944568213}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="4110" yWindow="585" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
+  <si>
+    <t>Filename</t>
+  </si>
+  <si>
+    <t>Network</t>
+  </si>
+  <si>
+    <t>Demand Type</t>
+  </si>
+  <si>
+    <t>Demand mode</t>
+  </si>
+  <si>
+    <t>Exp. Time</t>
+  </si>
+  <si>
+    <t>Exp. Time2</t>
+  </si>
+  <si>
+    <t>TLS Type</t>
+  </si>
+  <si>
+    <t>Agent Type</t>
+  </si>
+  <si>
+    <t>Features</t>
+  </si>
+  <si>
+    <t>Reward</t>
+  </si>
+  <si>
+    <t>Travel Time</t>
+  </si>
+  <si>
+    <t>Waiting Time</t>
+  </si>
+  <si>
+    <t>Speed</t>
+  </si>
+  <si>
+    <t>Stops</t>
+  </si>
+  <si>
+    <t>Epsilon Time</t>
+  </si>
+  <si>
+    <t>Min Replay</t>
+  </si>
+  <si>
+    <t>Max Replay</t>
+  </si>
+  <si>
+    <t>Time</t>
+  </si>
+  <si>
+    <t>Train: Actions Per Intersection</t>
+  </si>
+  <si>
+    <t>Train: Rewards Per Intersection</t>
+  </si>
+  <si>
+    <t>Test: Actions Per Intersection</t>
+  </si>
+  <si>
+    <t>Test: Rewards Per Intersection</t>
+  </si>
+  <si>
+    <t>20210409133901.524084</t>
+  </si>
+  <si>
+    <t>grid</t>
+  </si>
+  <si>
+    <t>constant</t>
+  </si>
+  <si>
+    <t>step</t>
+  </si>
+  <si>
+    <t>5000000</t>
+  </si>
+  <si>
+    <t>centralized</t>
+  </si>
+  <si>
+    <t>DQN</t>
+  </si>
+  <si>
+    <t>(speed, count)</t>
+  </si>
+  <si>
+    <t>reward_min_speed_delta</t>
+  </si>
+  <si>
+    <t>35.062 ± 35.062</t>
+  </si>
+  <si>
+    <t>11.211 ± 11.211</t>
+  </si>
+  <si>
+    <t>7.230 ± 7.230</t>
+  </si>
+  <si>
+    <t>0.605 ± 0.605</t>
+  </si>
+  <si>
+    <t>45000</t>
+  </si>
+  <si>
+    <t>5000</t>
+  </si>
+  <si>
+    <t>50000</t>
+  </si>
+  <si>
+    <t>0:00:00</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="2">
@@ -37,7 +176,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -45,18 +184,36 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -79,44 +236,44 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="1F497D"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="EEECE1"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4F81BD"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="C0504D"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="9BBB59"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="8064A2"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="4BACC6"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="F79646"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="0000FF"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -143,15 +300,14 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -178,7 +334,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -190,153 +345,338 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
-                <a:tint val="67000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
-                <a:tint val="73000"/>
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
-                <a:tint val="81000"/>
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
-                <a:lumMod val="102000"/>
-                <a:tint val="94000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
-                <a:lumMod val="100000"/>
-                <a:shade val="100000"/>
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="80000">
+              <a:schemeClr val="phClr">
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
-                <a:shade val="78000"/>
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
+                <a:alpha val="35000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:tint val="95000"/>
-            <a:satMod val="170000"/>
-          </a:schemeClr>
-        </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="93000"/>
-                <a:satMod val="150000"/>
-                <a:shade val="98000"/>
-                <a:lumMod val="102000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:tint val="98000"/>
-                <a:satMod val="130000"/>
-                <a:shade val="90000"/>
-                <a:lumMod val="103000"/>
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="63000"/>
-                <a:satMod val="120000"/>
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
   <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:V2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="P11" sqref="P11:R11"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <cols>
+    <col min="1" max="1" width="22" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="24.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="12" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="11" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="7.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F2">
+        <v>83333.333333333328</v>
+      </c>
+      <c r="G2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I2" t="s">
+        <v>29</v>
+      </c>
+      <c r="J2" t="s">
+        <v>30</v>
+      </c>
+      <c r="K2" t="s">
+        <v>31</v>
+      </c>
+      <c r="L2" t="s">
+        <v>32</v>
+      </c>
+      <c r="M2" t="s">
+        <v>33</v>
+      </c>
+      <c r="N2" t="s">
+        <v>34</v>
+      </c>
+      <c r="O2" t="s">
+        <v>35</v>
+      </c>
+      <c r="P2" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>37</v>
+      </c>
+      <c r="R2" t="s">
+        <v>38</v>
+      </c>
+      <c r="S2" t="str">
+        <f>HYPERLINK("data/plots/20210409133901.524084/train/actions_per_intersection.png", "Image")</f>
+        <v>Image</v>
+      </c>
+      <c r="T2" t="str">
+        <f>HYPERLINK("data/plots/20210409133901.524084/train/rewards_per_intersection.png", "Image")</f>
+        <v>Image</v>
+      </c>
+      <c r="U2" t="str">
+        <f>HYPERLINK("data/plots/20210409133901.524084/test/actions_per_intersection.png", "Image")</f>
+        <v>Image</v>
+      </c>
+      <c r="V2" t="str">
+        <f>HYPERLINK("data/plots/20210409133901.524084/test/rewards_per_intersection.png", "Image")</f>
+        <v>Image</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/Results.xlsx
+++ b/Results.xlsx
@@ -4,7 +4,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
@@ -53,18 +53,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="00000000"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V2"/>
+  <dimension ref="A1:V3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -651,7 +651,113 @@
         <v/>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>20210414162248.072287</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>grid</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>constant</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>step</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>7200000</t>
+        </is>
+      </c>
+      <c r="F3" t="n">
+        <v>120000</v>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>centralized</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>DQN</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>(speed, count)</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>reward_min_speed_delta</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>35.357 ± 35.357</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>11.338 ± 11.338</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>7.182 ± 7.182</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>0.608 ± 0.608</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>100000</t>
+        </is>
+      </c>
+      <c r="P3" t="inlineStr">
+        <is>
+          <t>5000</t>
+        </is>
+      </c>
+      <c r="Q3" t="inlineStr">
+        <is>
+          <t>50000</t>
+        </is>
+      </c>
+      <c r="R3" t="inlineStr">
+        <is>
+          <t>12:25:34</t>
+        </is>
+      </c>
+      <c r="S3">
+        <f>HYPERLINK("data/plots/20210414162248.072287/train/actions_per_intersection.png", "Image")</f>
+        <v/>
+      </c>
+      <c r="T3">
+        <f>HYPERLINK("data/plots/20210414162248.072287/train/rewards_per_intersection.png", "Image")</f>
+        <v/>
+      </c>
+      <c r="U3">
+        <f>HYPERLINK("data/plots/20210414162248.072287/test/actions_per_intersection.png", "Image")</f>
+        <v/>
+      </c>
+      <c r="V3">
+        <f>HYPERLINK("data/plots/20210414162248.072287/test/rewards_per_intersection.png", "Image")</f>
+        <v/>
+      </c>
+    </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/Results.xlsx
+++ b/Results.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V3"/>
+  <dimension ref="A1:V4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -757,6 +757,112 @@
         <v/>
       </c>
     </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>20210415132255.987863</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>grid</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>variable</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>step</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>7200000</t>
+        </is>
+      </c>
+      <c r="F4" t="n">
+        <v>120000</v>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>centralized</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>DQN</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>(speed, count)</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>reward_min_speed_delta</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>44.077 ± 44.077</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>17.411 ± 17.411</t>
+        </is>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>6.423 ± 6.423</t>
+        </is>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>0.785 ± 0.785</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>100000</t>
+        </is>
+      </c>
+      <c r="P4" t="inlineStr">
+        <is>
+          <t>5000</t>
+        </is>
+      </c>
+      <c r="Q4" t="inlineStr">
+        <is>
+          <t>50000</t>
+        </is>
+      </c>
+      <c r="R4" t="inlineStr">
+        <is>
+          <t>12:58:56</t>
+        </is>
+      </c>
+      <c r="S4">
+        <f>HYPERLINK("data/plots/20210415132255.987863/train/actions_per_intersection.png", "Image")</f>
+        <v/>
+      </c>
+      <c r="T4">
+        <f>HYPERLINK("data/plots/20210415132255.987863/train/rewards_per_intersection.png", "Image")</f>
+        <v/>
+      </c>
+      <c r="U4">
+        <f>HYPERLINK("data/plots/20210415132255.987863/test/actions_per_intersection.png", "Image")</f>
+        <v/>
+      </c>
+      <c r="V4">
+        <f>HYPERLINK("data/plots/20210415132255.987863/test/rewards_per_intersection.png", "Image")</f>
+        <v/>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Results.xlsx
+++ b/Results.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V4"/>
+  <dimension ref="A1:V6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -863,6 +863,218 @@
         <v/>
       </c>
     </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>20210416035225.382663</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>grid</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>variable</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>step</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>7200000</t>
+        </is>
+      </c>
+      <c r="F5" t="n">
+        <v>120000</v>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>rl</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>DQN</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>(speed, count)</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>reward_min_speed_delta</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>36.513 ± 36.513</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>11.746 ± 11.746</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>6.956 ± 6.956</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>0.626 ± 0.626</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>100000</t>
+        </is>
+      </c>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>5000</t>
+        </is>
+      </c>
+      <c r="Q5" t="inlineStr">
+        <is>
+          <t>50000</t>
+        </is>
+      </c>
+      <c r="R5" t="inlineStr">
+        <is>
+          <t>12:21:24</t>
+        </is>
+      </c>
+      <c r="S5">
+        <f>HYPERLINK("data/plots/20210416035225.382663/train/actions_per_intersection.png", "Image")</f>
+        <v/>
+      </c>
+      <c r="T5">
+        <f>HYPERLINK("data/plots/20210416035225.382663/train/rewards_per_intersection.png", "Image")</f>
+        <v/>
+      </c>
+      <c r="U5">
+        <f>HYPERLINK("data/plots/20210416035225.382663/test/actions_per_intersection.png", "Image")</f>
+        <v/>
+      </c>
+      <c r="V5">
+        <f>HYPERLINK("data/plots/20210416035225.382663/test/rewards_per_intersection.png", "Image")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>20210417081305.609274</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>grid</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>variable</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>step</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>7200000</t>
+        </is>
+      </c>
+      <c r="F6" t="n">
+        <v>120000</v>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>centralized</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>DQN</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>(speed, count)</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>reward_min_speed_delta</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>42.238 ± 42.238</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>16.159 ± 16.159</t>
+        </is>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>6.651 ± 6.651</t>
+        </is>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>0.762 ± 0.762</t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>100000</t>
+        </is>
+      </c>
+      <c r="P6" t="inlineStr">
+        <is>
+          <t>10000</t>
+        </is>
+      </c>
+      <c r="Q6" t="inlineStr">
+        <is>
+          <t>100000</t>
+        </is>
+      </c>
+      <c r="R6" t="inlineStr">
+        <is>
+          <t>12:32:14</t>
+        </is>
+      </c>
+      <c r="S6">
+        <f>HYPERLINK("data/plots/20210417081305.609274/train/actions_per_intersection.png", "Image")</f>
+        <v/>
+      </c>
+      <c r="T6">
+        <f>HYPERLINK("data/plots/20210417081305.609274/train/rewards_per_intersection.png", "Image")</f>
+        <v/>
+      </c>
+      <c r="U6">
+        <f>HYPERLINK("data/plots/20210417081305.609274/test/actions_per_intersection.png", "Image")</f>
+        <v/>
+      </c>
+      <c r="V6">
+        <f>HYPERLINK("data/plots/20210417081305.609274/test/rewards_per_intersection.png", "Image")</f>
+        <v/>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Results.xlsx
+++ b/Results.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V6"/>
+  <dimension ref="A1:V7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1075,6 +1075,112 @@
         <v/>
       </c>
     </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>20210419142148.398590</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>grid</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>variable</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>step</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>7200000</t>
+        </is>
+      </c>
+      <c r="F7" t="n">
+        <v>120000</v>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>centralized</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>DQN</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>(delay,)</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>reward_min_delay</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>45.362 ± 45.362</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>18.314 ± 18.314</t>
+        </is>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>6.378 ± 6.378</t>
+        </is>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>0.839 ± 0.839</t>
+        </is>
+      </c>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>100000</t>
+        </is>
+      </c>
+      <c r="P7" t="inlineStr">
+        <is>
+          <t>10000</t>
+        </is>
+      </c>
+      <c r="Q7" t="inlineStr">
+        <is>
+          <t>100000</t>
+        </is>
+      </c>
+      <c r="R7" t="inlineStr">
+        <is>
+          <t>12:22:52</t>
+        </is>
+      </c>
+      <c r="S7">
+        <f>HYPERLINK("data/plots/20210419142148.398590/train/actions_per_intersection.png", "Image")</f>
+        <v/>
+      </c>
+      <c r="T7">
+        <f>HYPERLINK("data/plots/20210419142148.398590/train/rewards_per_intersection.png", "Image")</f>
+        <v/>
+      </c>
+      <c r="U7">
+        <f>HYPERLINK("data/plots/20210419142148.398590/test/actions_per_intersection.png", "Image")</f>
+        <v/>
+      </c>
+      <c r="V7">
+        <f>HYPERLINK("data/plots/20210419142148.398590/test/rewards_per_intersection.png", "Image")</f>
+        <v/>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Results.xlsx
+++ b/Results.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V7"/>
+  <dimension ref="A1:V8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1181,6 +1181,112 @@
         <v/>
       </c>
     </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>20210421184402.286502</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>grid</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>constant</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>step</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>7200000</t>
+        </is>
+      </c>
+      <c r="F8" t="n">
+        <v>120000</v>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>centralized</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>DQN</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>(delay,)</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>reward_min_delay</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>36.581 ± 36.581</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>12.157 ± 12.157</t>
+        </is>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>7.050 ± 7.050</t>
+        </is>
+      </c>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>0.631 ± 0.631</t>
+        </is>
+      </c>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>100000</t>
+        </is>
+      </c>
+      <c r="P8" t="inlineStr">
+        <is>
+          <t>10000</t>
+        </is>
+      </c>
+      <c r="Q8" t="inlineStr">
+        <is>
+          <t>120000</t>
+        </is>
+      </c>
+      <c r="R8" t="inlineStr">
+        <is>
+          <t>4:02:24</t>
+        </is>
+      </c>
+      <c r="S8">
+        <f>HYPERLINK("data/plots/20210421184402.286502/train/actions_per_intersection.png", "Image")</f>
+        <v/>
+      </c>
+      <c r="T8">
+        <f>HYPERLINK("data/plots/20210421184402.286502/train/rewards_per_intersection.png", "Image")</f>
+        <v/>
+      </c>
+      <c r="U8">
+        <f>HYPERLINK("data/plots/20210421184402.286502/test/actions_per_intersection.png", "Image")</f>
+        <v/>
+      </c>
+      <c r="V8">
+        <f>HYPERLINK("data/plots/20210421184402.286502/test/rewards_per_intersection.png", "Image")</f>
+        <v/>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Results.xlsx
+++ b/Results.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V8"/>
+  <dimension ref="A1:V9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1287,6 +1287,112 @@
         <v/>
       </c>
     </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>20210422023222.095018</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>grid</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>constant</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>step</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>7200000</t>
+        </is>
+      </c>
+      <c r="F9" t="n">
+        <v>120000</v>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>rl</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>DQN</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>(delay,)</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>reward_min_delay</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>34.334 ± 34.334</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>10.701 ± 10.701</t>
+        </is>
+      </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>7.340 ± 7.340</t>
+        </is>
+      </c>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>0.586 ± 0.586</t>
+        </is>
+      </c>
+      <c r="O9" t="inlineStr">
+        <is>
+          <t>100000</t>
+        </is>
+      </c>
+      <c r="P9" t="inlineStr">
+        <is>
+          <t>10000</t>
+        </is>
+      </c>
+      <c r="Q9" t="inlineStr">
+        <is>
+          <t>120000</t>
+        </is>
+      </c>
+      <c r="R9" t="inlineStr">
+        <is>
+          <t>3:50:44</t>
+        </is>
+      </c>
+      <c r="S9">
+        <f>HYPERLINK("data/plots/20210422023222.095018/train/actions_per_intersection.png", "Image")</f>
+        <v/>
+      </c>
+      <c r="T9">
+        <f>HYPERLINK("data/plots/20210422023222.095018/train/rewards_per_intersection.png", "Image")</f>
+        <v/>
+      </c>
+      <c r="U9">
+        <f>HYPERLINK("data/plots/20210422023222.095018/test/actions_per_intersection.png", "Image")</f>
+        <v/>
+      </c>
+      <c r="V9">
+        <f>HYPERLINK("data/plots/20210422023222.095018/test/rewards_per_intersection.png", "Image")</f>
+        <v/>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Results.xlsx
+++ b/Results.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V9"/>
+  <dimension ref="A1:V11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1393,6 +1393,218 @@
         <v/>
       </c>
     </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>20210422140018.877665</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>grid</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>variable</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>step</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>7200000</t>
+        </is>
+      </c>
+      <c r="F10" t="n">
+        <v>120000</v>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>centralized</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>DQN</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>(delay,)</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>reward_min_delay</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>43.378 ± 43.378</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>16.553 ± 16.553</t>
+        </is>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>6.343 ± 6.343</t>
+        </is>
+      </c>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>0.784 ± 0.784</t>
+        </is>
+      </c>
+      <c r="O10" t="inlineStr">
+        <is>
+          <t>100000</t>
+        </is>
+      </c>
+      <c r="P10" t="inlineStr">
+        <is>
+          <t>10000</t>
+        </is>
+      </c>
+      <c r="Q10" t="inlineStr">
+        <is>
+          <t>120000</t>
+        </is>
+      </c>
+      <c r="R10" t="inlineStr">
+        <is>
+          <t>4:21:34</t>
+        </is>
+      </c>
+      <c r="S10">
+        <f>HYPERLINK("data/plots/20210422140018.877665/train/actions_per_intersection.png", "Image")</f>
+        <v/>
+      </c>
+      <c r="T10">
+        <f>HYPERLINK("data/plots/20210422140018.877665/train/rewards_per_intersection.png", "Image")</f>
+        <v/>
+      </c>
+      <c r="U10">
+        <f>HYPERLINK("data/plots/20210422140018.877665/test/actions_per_intersection.png", "Image")</f>
+        <v/>
+      </c>
+      <c r="V10">
+        <f>HYPERLINK("data/plots/20210422140018.877665/test/rewards_per_intersection.png", "Image")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>20210422205739.872102</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>grid</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>variable</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>step</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>7200000</t>
+        </is>
+      </c>
+      <c r="F11" t="n">
+        <v>120000</v>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>rl</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>DQN</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>(delay,)</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>reward_min_delay</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>38.413 ± 38.413</t>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>12.886 ± 12.886</t>
+        </is>
+      </c>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>6.749 ± 6.749</t>
+        </is>
+      </c>
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>0.665 ± 0.665</t>
+        </is>
+      </c>
+      <c r="O11" t="inlineStr">
+        <is>
+          <t>100000</t>
+        </is>
+      </c>
+      <c r="P11" t="inlineStr">
+        <is>
+          <t>10000</t>
+        </is>
+      </c>
+      <c r="Q11" t="inlineStr">
+        <is>
+          <t>120000</t>
+        </is>
+      </c>
+      <c r="R11" t="inlineStr">
+        <is>
+          <t>4:04:25</t>
+        </is>
+      </c>
+      <c r="S11">
+        <f>HYPERLINK("data/plots/20210422205739.872102/train/actions_per_intersection.png", "Image")</f>
+        <v/>
+      </c>
+      <c r="T11">
+        <f>HYPERLINK("data/plots/20210422205739.872102/train/rewards_per_intersection.png", "Image")</f>
+        <v/>
+      </c>
+      <c r="U11">
+        <f>HYPERLINK("data/plots/20210422205739.872102/test/actions_per_intersection.png", "Image")</f>
+        <v/>
+      </c>
+      <c r="V11">
+        <f>HYPERLINK("data/plots/20210422205739.872102/test/rewards_per_intersection.png", "Image")</f>
+        <v/>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Results.xlsx
+++ b/Results.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V11"/>
+  <dimension ref="A1:V12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1605,6 +1605,112 @@
         <v/>
       </c>
     </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>20210423143434.958217</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>grid</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>constant</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>step</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>7200000</t>
+        </is>
+      </c>
+      <c r="F12" t="n">
+        <v>120000</v>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>centralized</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>DQN</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>(delay,)</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>reward_min_delay</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>36.133 ± 36.133</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>11.831 ± 11.831</t>
+        </is>
+      </c>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>7.092 ± 7.092</t>
+        </is>
+      </c>
+      <c r="N12" t="inlineStr">
+        <is>
+          <t>0.618 ± 0.618</t>
+        </is>
+      </c>
+      <c r="O12" t="inlineStr">
+        <is>
+          <t>100000</t>
+        </is>
+      </c>
+      <c r="P12" t="inlineStr">
+        <is>
+          <t>10000</t>
+        </is>
+      </c>
+      <c r="Q12" t="inlineStr">
+        <is>
+          <t>120000</t>
+        </is>
+      </c>
+      <c r="R12" t="inlineStr">
+        <is>
+          <t>4:03:29</t>
+        </is>
+      </c>
+      <c r="S12">
+        <f>HYPERLINK("data/plots/20210423143434.958217/train/actions_per_intersection.png", "Image")</f>
+        <v/>
+      </c>
+      <c r="T12">
+        <f>HYPERLINK("data/plots/20210423143434.958217/train/rewards_per_intersection.png", "Image")</f>
+        <v/>
+      </c>
+      <c r="U12">
+        <f>HYPERLINK("data/plots/20210423143434.958217/test/actions_per_intersection.png", "Image")</f>
+        <v/>
+      </c>
+      <c r="V12">
+        <f>HYPERLINK("data/plots/20210423143434.958217/test/rewards_per_intersection.png", "Image")</f>
+        <v/>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Results.xlsx
+++ b/Results.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V12"/>
+  <dimension ref="A1:V13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1711,6 +1711,112 @@
         <v/>
       </c>
     </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>20210427143618.197596</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>grid</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>variable</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>step</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>7200000</t>
+        </is>
+      </c>
+      <c r="F13" t="n">
+        <v>120000</v>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>centralized</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>DQN</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>(delay,)</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>reward_min_delay</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>39.186 ± 39.186</t>
+        </is>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>13.807 ± 13.807</t>
+        </is>
+      </c>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>6.741 ± 6.741</t>
+        </is>
+      </c>
+      <c r="N13" t="inlineStr">
+        <is>
+          <t>0.680 ± 0.680</t>
+        </is>
+      </c>
+      <c r="O13" t="inlineStr">
+        <is>
+          <t>100000</t>
+        </is>
+      </c>
+      <c r="P13" t="inlineStr">
+        <is>
+          <t>10000</t>
+        </is>
+      </c>
+      <c r="Q13" t="inlineStr">
+        <is>
+          <t>120000</t>
+        </is>
+      </c>
+      <c r="R13" t="inlineStr">
+        <is>
+          <t>4:21:11</t>
+        </is>
+      </c>
+      <c r="S13">
+        <f>HYPERLINK("data/plots/20210427143618.197596/train/actions_per_intersection.png", "Image")</f>
+        <v/>
+      </c>
+      <c r="T13">
+        <f>HYPERLINK("data/plots/20210427143618.197596/train/rewards_per_intersection.png", "Image")</f>
+        <v/>
+      </c>
+      <c r="U13">
+        <f>HYPERLINK("data/plots/20210427143618.197596/test/actions_per_intersection.png", "Image")</f>
+        <v/>
+      </c>
+      <c r="V13">
+        <f>HYPERLINK("data/plots/20210427143618.197596/test/rewards_per_intersection.png", "Image")</f>
+        <v/>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Results.xlsx
+++ b/Results.xlsx
@@ -4,7 +4,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
@@ -53,18 +53,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="00000000"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y14"/>
+  <dimension ref="A1:Y15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2107,7 +2107,126 @@
         </is>
       </c>
     </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>20210428172353.933132</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>grid</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>variable</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>step</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>7200000</t>
+        </is>
+      </c>
+      <c r="F15" t="n">
+        <v>120000</v>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>centralized</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>DQN</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>(delay,)</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>reward_min_delay</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>38.779 ± 18.444</t>
+        </is>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>13.173 ± 13.527</t>
+        </is>
+      </c>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>6.710 ± 3.173</t>
+        </is>
+      </c>
+      <c r="N15" t="inlineStr">
+        <is>
+          <t>0.672 ± 0.604</t>
+        </is>
+      </c>
+      <c r="O15" t="inlineStr">
+        <is>
+          <t>100000</t>
+        </is>
+      </c>
+      <c r="P15" t="inlineStr">
+        <is>
+          <t>10000</t>
+        </is>
+      </c>
+      <c r="Q15" t="inlineStr">
+        <is>
+          <t>120000</t>
+        </is>
+      </c>
+      <c r="R15" t="inlineStr">
+        <is>
+          <t>4:34:25</t>
+        </is>
+      </c>
+      <c r="S15">
+        <f>HYPERLINK("data/plots/20210428172353.933132/train/actions_per_intersection.png", "Image")</f>
+        <v/>
+      </c>
+      <c r="T15">
+        <f>HYPERLINK("data/plots/20210428172353.933132/train/rewards_per_intersection.png", "Image")</f>
+        <v/>
+      </c>
+      <c r="U15">
+        <f>HYPERLINK("data/plots/20210428172353.933132/test/actions_per_intersection.png", "Image")</f>
+        <v/>
+      </c>
+      <c r="V15">
+        <f>HYPERLINK("data/plots/20210428172353.933132/test/rewards_per_intersection.png", "Image")</f>
+        <v/>
+      </c>
+      <c r="W15">
+        <f>HYPERLINK("data/plots/20210428172353.933132/loss.png", "Image")</f>
+        <v/>
+      </c>
+      <c r="X15">
+        <f>HYPERLINK("data/plots/train20210428172353.933132/rewards.png", "Image")</f>
+        <v/>
+      </c>
+      <c r="Y15" t="inlineStr">
+        <is>
+          <t>[8,16,16][8,8]</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/Results.xlsx
+++ b/Results.xlsx
@@ -435,7 +435,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y16"/>
+  <dimension ref="A1:Y17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="N21" sqref="N21"/>
@@ -2373,6 +2373,125 @@
         </is>
       </c>
     </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>20210429134452.516833</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>grid</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>variable</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>step</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>7200000</t>
+        </is>
+      </c>
+      <c r="F17" t="n">
+        <v>120000</v>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>rl</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>DQN</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>(delay,)</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>reward_min_delay</t>
+        </is>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>36.945 ± 16.577</t>
+        </is>
+      </c>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>12.051 ± 12.526</t>
+        </is>
+      </c>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>6.923 ± 3.214</t>
+        </is>
+      </c>
+      <c r="N17" t="inlineStr">
+        <is>
+          <t>0.637 ± 0.586</t>
+        </is>
+      </c>
+      <c r="O17" t="inlineStr">
+        <is>
+          <t>100000</t>
+        </is>
+      </c>
+      <c r="P17" t="inlineStr">
+        <is>
+          <t>10000</t>
+        </is>
+      </c>
+      <c r="Q17" t="inlineStr">
+        <is>
+          <t>120000</t>
+        </is>
+      </c>
+      <c r="R17" t="inlineStr">
+        <is>
+          <t>4:04:43</t>
+        </is>
+      </c>
+      <c r="S17">
+        <f>HYPERLINK("data/plots/20210429134452.516833/train/actions_per_intersection.png", "Image")</f>
+        <v/>
+      </c>
+      <c r="T17">
+        <f>HYPERLINK("data/plots/20210429134452.516833/train/rewards_per_intersection.png", "Image")</f>
+        <v/>
+      </c>
+      <c r="U17">
+        <f>HYPERLINK("data/plots/20210429134452.516833/test/actions_per_intersection.png", "Image")</f>
+        <v/>
+      </c>
+      <c r="V17">
+        <f>HYPERLINK("data/plots/20210429134452.516833/test/rewards_per_intersection.png", "Image")</f>
+        <v/>
+      </c>
+      <c r="W17">
+        <f>HYPERLINK("data/plots/20210429134452.516833/loss.png", "Image")</f>
+        <v/>
+      </c>
+      <c r="X17">
+        <f>HYPERLINK("data/plots/train20210429134452.516833/rewards.png", "Image")</f>
+        <v/>
+      </c>
+      <c r="Y17" t="inlineStr">
+        <is>
+          <t>[8, 16][8]</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Results.xlsx
+++ b/Results.xlsx
@@ -435,7 +435,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y17"/>
+  <dimension ref="A1:Y18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="N21" sqref="N21"/>
@@ -2492,6 +2492,125 @@
         </is>
       </c>
     </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>20210430014101.402910</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>grid</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>constant</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>step</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>7200000</t>
+        </is>
+      </c>
+      <c r="F18" t="n">
+        <v>120000</v>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>centralized</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>DQN</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>(delay,)</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>reward_min_delay</t>
+        </is>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>34.662 ± 15.343</t>
+        </is>
+      </c>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>10.942 ± 11.780</t>
+        </is>
+      </c>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>7.284 ± 3.369</t>
+        </is>
+      </c>
+      <c r="N18" t="inlineStr">
+        <is>
+          <t>0.595 ± 0.570</t>
+        </is>
+      </c>
+      <c r="O18" t="inlineStr">
+        <is>
+          <t>100000</t>
+        </is>
+      </c>
+      <c r="P18" t="inlineStr">
+        <is>
+          <t>10000</t>
+        </is>
+      </c>
+      <c r="Q18" t="inlineStr">
+        <is>
+          <t>120000</t>
+        </is>
+      </c>
+      <c r="R18" t="inlineStr">
+        <is>
+          <t>3:49:23</t>
+        </is>
+      </c>
+      <c r="S18">
+        <f>HYPERLINK("data/plots/20210430014101.402910/train/actions_per_intersection.png", "Image")</f>
+        <v/>
+      </c>
+      <c r="T18">
+        <f>HYPERLINK("data/plots/20210430014101.402910/train/rewards_per_intersection.png", "Image")</f>
+        <v/>
+      </c>
+      <c r="U18">
+        <f>HYPERLINK("data/plots/20210430014101.402910/test/actions_per_intersection.png", "Image")</f>
+        <v/>
+      </c>
+      <c r="V18">
+        <f>HYPERLINK("data/plots/20210430014101.402910/test/rewards_per_intersection.png", "Image")</f>
+        <v/>
+      </c>
+      <c r="W18">
+        <f>HYPERLINK("data/plots/20210430014101.402910/loss.png", "Image")</f>
+        <v/>
+      </c>
+      <c r="X18">
+        <f>HYPERLINK("data/plots/train20210430014101.402910/rewards.png", "Image")</f>
+        <v/>
+      </c>
+      <c r="Y18" t="inlineStr">
+        <is>
+          <t>[16,32,32][8,8]</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Results.xlsx
+++ b/Results.xlsx
@@ -435,7 +435,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y18"/>
+  <dimension ref="A1:Y19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="N21" sqref="N21"/>
@@ -2611,6 +2611,125 @@
         </is>
       </c>
     </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>20210430175502.540824</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>grid</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>constant</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>step</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>7200000</t>
+        </is>
+      </c>
+      <c r="F19" t="n">
+        <v>120000</v>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>rl</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>DQN</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>(delay,)</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>reward_min_delay</t>
+        </is>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>34.517 ± 15.356</t>
+        </is>
+      </c>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>10.839 ± 12.022</t>
+        </is>
+      </c>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>7.337 ± 3.430</t>
+        </is>
+      </c>
+      <c r="N19" t="inlineStr">
+        <is>
+          <t>0.587 ± 0.572</t>
+        </is>
+      </c>
+      <c r="O19" t="inlineStr">
+        <is>
+          <t>100000</t>
+        </is>
+      </c>
+      <c r="P19" t="inlineStr">
+        <is>
+          <t>10000</t>
+        </is>
+      </c>
+      <c r="Q19" t="inlineStr">
+        <is>
+          <t>120000</t>
+        </is>
+      </c>
+      <c r="R19" t="inlineStr">
+        <is>
+          <t>3:53:16</t>
+        </is>
+      </c>
+      <c r="S19">
+        <f>HYPERLINK("data/plots/20210430175502.540824/train/actions_per_intersection.png", "Image")</f>
+        <v/>
+      </c>
+      <c r="T19">
+        <f>HYPERLINK("data/plots/20210430175502.540824/train/rewards_per_intersection.png", "Image")</f>
+        <v/>
+      </c>
+      <c r="U19">
+        <f>HYPERLINK("data/plots/20210430175502.540824/test/actions_per_intersection.png", "Image")</f>
+        <v/>
+      </c>
+      <c r="V19">
+        <f>HYPERLINK("data/plots/20210430175502.540824/test/rewards_per_intersection.png", "Image")</f>
+        <v/>
+      </c>
+      <c r="W19">
+        <f>HYPERLINK("data/plots/20210430175502.540824/loss.png", "Image")</f>
+        <v/>
+      </c>
+      <c r="X19">
+        <f>HYPERLINK("data/plots/train20210430175502.540824/rewards.png", "Image")</f>
+        <v/>
+      </c>
+      <c r="Y19" t="inlineStr">
+        <is>
+          <t>[8, 16][8]</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Results.xlsx
+++ b/Results.xlsx
@@ -435,7 +435,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y19"/>
+  <dimension ref="A1:Y20"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="N21" sqref="N21"/>
@@ -2730,6 +2730,125 @@
         </is>
       </c>
     </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>20210501043022.398715</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>grid</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>variable</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>step</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>7200000</t>
+        </is>
+      </c>
+      <c r="F20" t="n">
+        <v>120000</v>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>centralized</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>DQN</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>(delay,)</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>reward_min_delay</t>
+        </is>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>37.116 ± 17.007</t>
+        </is>
+      </c>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>12.206 ± 12.932</t>
+        </is>
+      </c>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>6.918 ± 3.235</t>
+        </is>
+      </c>
+      <c r="N20" t="inlineStr">
+        <is>
+          <t>0.637 ± 0.585</t>
+        </is>
+      </c>
+      <c r="O20" t="inlineStr">
+        <is>
+          <t>100000</t>
+        </is>
+      </c>
+      <c r="P20" t="inlineStr">
+        <is>
+          <t>10000</t>
+        </is>
+      </c>
+      <c r="Q20" t="inlineStr">
+        <is>
+          <t>120000</t>
+        </is>
+      </c>
+      <c r="R20" t="inlineStr">
+        <is>
+          <t>4:14:48</t>
+        </is>
+      </c>
+      <c r="S20">
+        <f>HYPERLINK("data/plots/20210501043022.398715/train/actions_per_intersection.png", "Image")</f>
+        <v/>
+      </c>
+      <c r="T20">
+        <f>HYPERLINK("data/plots/20210501043022.398715/train/rewards_per_intersection.png", "Image")</f>
+        <v/>
+      </c>
+      <c r="U20">
+        <f>HYPERLINK("data/plots/20210501043022.398715/test/actions_per_intersection.png", "Image")</f>
+        <v/>
+      </c>
+      <c r="V20">
+        <f>HYPERLINK("data/plots/20210501043022.398715/test/rewards_per_intersection.png", "Image")</f>
+        <v/>
+      </c>
+      <c r="W20">
+        <f>HYPERLINK("data/plots/20210501043022.398715/loss.png", "Image")</f>
+        <v/>
+      </c>
+      <c r="X20">
+        <f>HYPERLINK("data/plots/train20210501043022.398715/rewards.png", "Image")</f>
+        <v/>
+      </c>
+      <c r="Y20" t="inlineStr">
+        <is>
+          <t>[16,32,32][8,8]</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Results.xlsx
+++ b/Results.xlsx
@@ -435,7 +435,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y20"/>
+  <dimension ref="A1:Y21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="N21" sqref="N21"/>
@@ -2849,6 +2849,125 @@
         </is>
       </c>
     </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>20210506164914.486523</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>grid</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>variable</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>step</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>7200000</t>
+        </is>
+      </c>
+      <c r="F21" t="n">
+        <v>120000</v>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>rl</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>DQN</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>(delay,)</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>reward_min_delay</t>
+        </is>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>36.208 ± 15.543</t>
+        </is>
+      </c>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>11.614 ± 12.006</t>
+        </is>
+      </c>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>7.004 ± 3.224</t>
+        </is>
+      </c>
+      <c r="N21" t="inlineStr">
+        <is>
+          <t>0.620 ± 0.568</t>
+        </is>
+      </c>
+      <c r="O21" t="inlineStr">
+        <is>
+          <t>100000</t>
+        </is>
+      </c>
+      <c r="P21" t="inlineStr">
+        <is>
+          <t>10000</t>
+        </is>
+      </c>
+      <c r="Q21" t="inlineStr">
+        <is>
+          <t>120000</t>
+        </is>
+      </c>
+      <c r="R21" t="inlineStr">
+        <is>
+          <t>4:08:29</t>
+        </is>
+      </c>
+      <c r="S21">
+        <f>HYPERLINK("data/plots/20210506164914.486523/train/actions_per_intersection.png", "Image")</f>
+        <v/>
+      </c>
+      <c r="T21">
+        <f>HYPERLINK("data/plots/20210506164914.486523/train/rewards_per_intersection.png", "Image")</f>
+        <v/>
+      </c>
+      <c r="U21">
+        <f>HYPERLINK("data/plots/20210506164914.486523/test/actions_per_intersection.png", "Image")</f>
+        <v/>
+      </c>
+      <c r="V21">
+        <f>HYPERLINK("data/plots/20210506164914.486523/test/rewards_per_intersection.png", "Image")</f>
+        <v/>
+      </c>
+      <c r="W21">
+        <f>HYPERLINK("data/plots/20210506164914.486523/loss.png", "Image")</f>
+        <v/>
+      </c>
+      <c r="X21">
+        <f>HYPERLINK("data/plots/train20210506164914.486523/rewards.png", "Image")</f>
+        <v/>
+      </c>
+      <c r="Y21" t="inlineStr">
+        <is>
+          <t>[8, 16][8]</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Results.xlsx
+++ b/Results.xlsx
@@ -4,7 +4,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
@@ -53,18 +53,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="00000000"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AB21"/>
+  <dimension ref="A1:AB22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3175,7 +3175,137 @@
         <v/>
       </c>
     </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>20210508173002.207346</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>constant</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>rl</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>[8, 16][8]</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>36.657 ± 18.456</t>
+        </is>
+      </c>
+      <c r="F22" t="n">
+        <v>36.37966666666667</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0.284262056325966</v>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>6.254 ± 9.015</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>18.533 ± 6.236</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>0.371 ± 0.487</t>
+        </is>
+      </c>
+      <c r="K22">
+        <f>HYPERLINK("data/plots/20210508173002.207346/train/actions_per_intersection.png", "Image")</f>
+        <v/>
+      </c>
+      <c r="L22">
+        <f>HYPERLINK("data/plots/20210508173002.207346/train/rewards_per_intersection.png", "Image")</f>
+        <v/>
+      </c>
+      <c r="M22">
+        <f>HYPERLINK("data/plots/20210508173002.207346/test/rewards_per_intersection.png", "Image")</f>
+        <v/>
+      </c>
+      <c r="N22">
+        <f>HYPERLINK("data/plots/20210508173002.207346/loss.png", "Image")</f>
+        <v/>
+      </c>
+      <c r="O22">
+        <f>HYPERLINK("data/plots/20210508173002.207346/train/rewards.png", "Image")</f>
+        <v/>
+      </c>
+      <c r="P22" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="Q22" t="inlineStr">
+        <is>
+          <t>grid_4</t>
+        </is>
+      </c>
+      <c r="R22" t="inlineStr">
+        <is>
+          <t>step</t>
+        </is>
+      </c>
+      <c r="S22" t="inlineStr">
+        <is>
+          <t>7200000</t>
+        </is>
+      </c>
+      <c r="T22" t="n">
+        <v>120000</v>
+      </c>
+      <c r="U22" t="inlineStr">
+        <is>
+          <t>DQN</t>
+        </is>
+      </c>
+      <c r="V22" t="inlineStr">
+        <is>
+          <t>(delay,)</t>
+        </is>
+      </c>
+      <c r="W22" t="inlineStr">
+        <is>
+          <t>reward_min_delay</t>
+        </is>
+      </c>
+      <c r="X22" t="inlineStr">
+        <is>
+          <t>100000</t>
+        </is>
+      </c>
+      <c r="Y22" t="inlineStr">
+        <is>
+          <t>10000</t>
+        </is>
+      </c>
+      <c r="Z22" t="inlineStr">
+        <is>
+          <t>120000</t>
+        </is>
+      </c>
+      <c r="AA22" t="inlineStr">
+        <is>
+          <t>6:27:39</t>
+        </is>
+      </c>
+      <c r="AB22">
+        <f>HYPERLINK("data/plots/20210508173002.207346/test/20210508173002.207346_metrics.csv", "File")</f>
+        <v/>
+      </c>
+    </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/Results.xlsx
+++ b/Results.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AB22"/>
+  <dimension ref="A1:AB23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3305,6 +3305,136 @@
         <v/>
       </c>
     </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>20210510162315.233682</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>constant</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>centralized</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>[16,32,32][8,8]</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>37.503 ± 19.812</t>
+        </is>
+      </c>
+      <c r="F23" t="n">
+        <v>36.89533333333333</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0.4089191715839334</v>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>6.849 ± 10.359</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>18.389 ± 6.405</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>0.380 ± 0.500</t>
+        </is>
+      </c>
+      <c r="K23">
+        <f>HYPERLINK("data/plots/20210510162315.233682/train/actions_per_intersection.png", "Image")</f>
+        <v/>
+      </c>
+      <c r="L23">
+        <f>HYPERLINK("data/plots/20210510162315.233682/train/rewards_per_intersection.png", "Image")</f>
+        <v/>
+      </c>
+      <c r="M23">
+        <f>HYPERLINK("data/plots/20210510162315.233682/test/rewards_per_intersection.png", "Image")</f>
+        <v/>
+      </c>
+      <c r="N23">
+        <f>HYPERLINK("data/plots/20210510162315.233682/loss.png", "Image")</f>
+        <v/>
+      </c>
+      <c r="O23">
+        <f>HYPERLINK("data/plots/20210510162315.233682/train/rewards.png", "Image")</f>
+        <v/>
+      </c>
+      <c r="P23" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="Q23" t="inlineStr">
+        <is>
+          <t>grid_4</t>
+        </is>
+      </c>
+      <c r="R23" t="inlineStr">
+        <is>
+          <t>step</t>
+        </is>
+      </c>
+      <c r="S23" t="inlineStr">
+        <is>
+          <t>7200000</t>
+        </is>
+      </c>
+      <c r="T23" t="n">
+        <v>120000</v>
+      </c>
+      <c r="U23" t="inlineStr">
+        <is>
+          <t>DQN</t>
+        </is>
+      </c>
+      <c r="V23" t="inlineStr">
+        <is>
+          <t>(delay,)</t>
+        </is>
+      </c>
+      <c r="W23" t="inlineStr">
+        <is>
+          <t>reward_min_delay</t>
+        </is>
+      </c>
+      <c r="X23" t="inlineStr">
+        <is>
+          <t>100000</t>
+        </is>
+      </c>
+      <c r="Y23" t="inlineStr">
+        <is>
+          <t>10000</t>
+        </is>
+      </c>
+      <c r="Z23" t="inlineStr">
+        <is>
+          <t>120000</t>
+        </is>
+      </c>
+      <c r="AA23" t="inlineStr">
+        <is>
+          <t>6:29:23</t>
+        </is>
+      </c>
+      <c r="AB23">
+        <f>HYPERLINK("data/plots/20210510162315.233682/test/20210510162315.233682_metrics.csv", "File")</f>
+        <v/>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Results.xlsx
+++ b/Results.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AB23"/>
+  <dimension ref="A1:AB24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3435,6 +3435,136 @@
         <v/>
       </c>
     </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>20210511153546.130819</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>variable</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>rl</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>[8, 16][8]</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>34.909 ± 18.379</t>
+        </is>
+      </c>
+      <c r="F24" t="n">
+        <v>34.77433333333334</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0.1202843852431933</v>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>5.674 ± 8.898</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>19.560 ± 6.395</t>
+        </is>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>0.339 ± 0.476</t>
+        </is>
+      </c>
+      <c r="K24">
+        <f>HYPERLINK("data/plots/20210511153546.130819/train/actions_per_intersection.png", "Image")</f>
+        <v/>
+      </c>
+      <c r="L24">
+        <f>HYPERLINK("data/plots/20210511153546.130819/train/rewards_per_intersection.png", "Image")</f>
+        <v/>
+      </c>
+      <c r="M24">
+        <f>HYPERLINK("data/plots/20210511153546.130819/test/rewards_per_intersection.png", "Image")</f>
+        <v/>
+      </c>
+      <c r="N24">
+        <f>HYPERLINK("data/plots/20210511153546.130819/loss.png", "Image")</f>
+        <v/>
+      </c>
+      <c r="O24">
+        <f>HYPERLINK("data/plots/20210511153546.130819/train/rewards.png", "Image")</f>
+        <v/>
+      </c>
+      <c r="P24" t="inlineStr">
+        <is>
+          <t>3600</t>
+        </is>
+      </c>
+      <c r="Q24" t="inlineStr">
+        <is>
+          <t>grid_4</t>
+        </is>
+      </c>
+      <c r="R24" t="inlineStr">
+        <is>
+          <t>step</t>
+        </is>
+      </c>
+      <c r="S24" t="inlineStr">
+        <is>
+          <t>7200000</t>
+        </is>
+      </c>
+      <c r="T24" t="n">
+        <v>120000</v>
+      </c>
+      <c r="U24" t="inlineStr">
+        <is>
+          <t>DQN</t>
+        </is>
+      </c>
+      <c r="V24" t="inlineStr">
+        <is>
+          <t>(delay,)</t>
+        </is>
+      </c>
+      <c r="W24" t="inlineStr">
+        <is>
+          <t>reward_min_delay</t>
+        </is>
+      </c>
+      <c r="X24" t="inlineStr">
+        <is>
+          <t>100000</t>
+        </is>
+      </c>
+      <c r="Y24" t="inlineStr">
+        <is>
+          <t>10000</t>
+        </is>
+      </c>
+      <c r="Z24" t="inlineStr">
+        <is>
+          <t>120000</t>
+        </is>
+      </c>
+      <c r="AA24" t="inlineStr">
+        <is>
+          <t>3:35:35</t>
+        </is>
+      </c>
+      <c r="AB24">
+        <f>HYPERLINK("data/plots/20210511153546.130819/test/20210511153546.130819_metrics.csv", "File")</f>
+        <v/>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Results.xlsx
+++ b/Results.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AB24"/>
+  <dimension ref="A1:AB25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3565,6 +3565,136 @@
         <v/>
       </c>
     </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>20210512010558.520760</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>variable</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>centralized</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>[16,32,32][8,8]</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>36.240 ± 21.461</t>
+        </is>
+      </c>
+      <c r="F25" t="n">
+        <v>34.871</v>
+      </c>
+      <c r="G25" t="n">
+        <v>2.195898961701107</v>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>6.629 ± 11.510</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>19.279 ± 6.563</t>
+        </is>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>0.366 ± 0.518</t>
+        </is>
+      </c>
+      <c r="K25">
+        <f>HYPERLINK("data/plots/20210512010558.520760/train/actions_per_intersection.png", "Image")</f>
+        <v/>
+      </c>
+      <c r="L25">
+        <f>HYPERLINK("data/plots/20210512010558.520760/train/rewards_per_intersection.png", "Image")</f>
+        <v/>
+      </c>
+      <c r="M25">
+        <f>HYPERLINK("data/plots/20210512010558.520760/test/rewards_per_intersection.png", "Image")</f>
+        <v/>
+      </c>
+      <c r="N25">
+        <f>HYPERLINK("data/plots/20210512010558.520760/loss.png", "Image")</f>
+        <v/>
+      </c>
+      <c r="O25">
+        <f>HYPERLINK("data/plots/20210512010558.520760/train/rewards.png", "Image")</f>
+        <v/>
+      </c>
+      <c r="P25" t="inlineStr">
+        <is>
+          <t>3600</t>
+        </is>
+      </c>
+      <c r="Q25" t="inlineStr">
+        <is>
+          <t>grid_4</t>
+        </is>
+      </c>
+      <c r="R25" t="inlineStr">
+        <is>
+          <t>step</t>
+        </is>
+      </c>
+      <c r="S25" t="inlineStr">
+        <is>
+          <t>7200000</t>
+        </is>
+      </c>
+      <c r="T25" t="n">
+        <v>120000</v>
+      </c>
+      <c r="U25" t="inlineStr">
+        <is>
+          <t>DQN</t>
+        </is>
+      </c>
+      <c r="V25" t="inlineStr">
+        <is>
+          <t>(delay,)</t>
+        </is>
+      </c>
+      <c r="W25" t="inlineStr">
+        <is>
+          <t>reward_min_delay</t>
+        </is>
+      </c>
+      <c r="X25" t="inlineStr">
+        <is>
+          <t>100000</t>
+        </is>
+      </c>
+      <c r="Y25" t="inlineStr">
+        <is>
+          <t>10000</t>
+        </is>
+      </c>
+      <c r="Z25" t="inlineStr">
+        <is>
+          <t>120000</t>
+        </is>
+      </c>
+      <c r="AA25" t="inlineStr">
+        <is>
+          <t>3:51:52</t>
+        </is>
+      </c>
+      <c r="AB25">
+        <f>HYPERLINK("data/plots/20210512010558.520760/test/20210512010558.520760_metrics.csv", "File")</f>
+        <v/>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Results.xlsx
+++ b/Results.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AB25"/>
+  <dimension ref="A1:AB26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3695,6 +3695,136 @@
         <v/>
       </c>
     </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>20210512142527.064451</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>variable</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>centralized</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>[32,64,64][16,16]</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>35.830 ± 20.809</t>
+        </is>
+      </c>
+      <c r="F26" t="n">
+        <v>34.71666666666666</v>
+      </c>
+      <c r="G26" t="n">
+        <v>1.246845709068378</v>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>6.306 ± 10.982</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>19.373 ± 6.518</t>
+        </is>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>0.354 ± 0.509</t>
+        </is>
+      </c>
+      <c r="K26">
+        <f>HYPERLINK("data/plots/20210512142527.064451/train/actions_per_intersection.png", "Image")</f>
+        <v/>
+      </c>
+      <c r="L26">
+        <f>HYPERLINK("data/plots/20210512142527.064451/train/rewards_per_intersection.png", "Image")</f>
+        <v/>
+      </c>
+      <c r="M26">
+        <f>HYPERLINK("data/plots/20210512142527.064451/test/rewards_per_intersection.png", "Image")</f>
+        <v/>
+      </c>
+      <c r="N26">
+        <f>HYPERLINK("data/plots/20210512142527.064451/loss.png", "Image")</f>
+        <v/>
+      </c>
+      <c r="O26">
+        <f>HYPERLINK("data/plots/20210512142527.064451/train/rewards.png", "Image")</f>
+        <v/>
+      </c>
+      <c r="P26" t="inlineStr">
+        <is>
+          <t>3600</t>
+        </is>
+      </c>
+      <c r="Q26" t="inlineStr">
+        <is>
+          <t>grid_4</t>
+        </is>
+      </c>
+      <c r="R26" t="inlineStr">
+        <is>
+          <t>step</t>
+        </is>
+      </c>
+      <c r="S26" t="inlineStr">
+        <is>
+          <t>7200000</t>
+        </is>
+      </c>
+      <c r="T26" t="n">
+        <v>120000</v>
+      </c>
+      <c r="U26" t="inlineStr">
+        <is>
+          <t>DQN</t>
+        </is>
+      </c>
+      <c r="V26" t="inlineStr">
+        <is>
+          <t>(delay,)</t>
+        </is>
+      </c>
+      <c r="W26" t="inlineStr">
+        <is>
+          <t>reward_min_delay</t>
+        </is>
+      </c>
+      <c r="X26" t="inlineStr">
+        <is>
+          <t>100000</t>
+        </is>
+      </c>
+      <c r="Y26" t="inlineStr">
+        <is>
+          <t>10000</t>
+        </is>
+      </c>
+      <c r="Z26" t="inlineStr">
+        <is>
+          <t>120000</t>
+        </is>
+      </c>
+      <c r="AA26" t="inlineStr">
+        <is>
+          <t>3:54:54</t>
+        </is>
+      </c>
+      <c r="AB26">
+        <f>HYPERLINK("data/plots/20210512142527.064451/test/20210512142527.064451_metrics.csv", "File")</f>
+        <v/>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Results.xlsx
+++ b/Results.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AB26"/>
+  <dimension ref="A1:AB27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3825,6 +3825,136 @@
         <v/>
       </c>
     </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>20210516145202.048442</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>variable</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>centralized</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>[32,64,64][16,16]</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>36.099 ± 20.703</t>
+        </is>
+      </c>
+      <c r="F27" t="n">
+        <v>35.20566666666667</v>
+      </c>
+      <c r="G27" t="n">
+        <v>0.8125605333575886</v>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>6.562 ± 11.015</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>19.353 ± 6.635</t>
+        </is>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>0.357 ± 0.504</t>
+        </is>
+      </c>
+      <c r="K27">
+        <f>HYPERLINK("data/plots/20210516145202.048442/train/actions_per_intersection.png", "Image")</f>
+        <v/>
+      </c>
+      <c r="L27">
+        <f>HYPERLINK("data/plots/20210516145202.048442/train/rewards_per_intersection.png", "Image")</f>
+        <v/>
+      </c>
+      <c r="M27">
+        <f>HYPERLINK("data/plots/20210516145202.048442/test/rewards_per_intersection.png", "Image")</f>
+        <v/>
+      </c>
+      <c r="N27">
+        <f>HYPERLINK("data/plots/20210516145202.048442/loss.png", "Image")</f>
+        <v/>
+      </c>
+      <c r="O27">
+        <f>HYPERLINK("data/plots/20210516145202.048442/train/rewards.png", "Image")</f>
+        <v/>
+      </c>
+      <c r="P27" t="inlineStr">
+        <is>
+          <t>3600</t>
+        </is>
+      </c>
+      <c r="Q27" t="inlineStr">
+        <is>
+          <t>grid_4</t>
+        </is>
+      </c>
+      <c r="R27" t="inlineStr">
+        <is>
+          <t>step</t>
+        </is>
+      </c>
+      <c r="S27" t="inlineStr">
+        <is>
+          <t>30000000</t>
+        </is>
+      </c>
+      <c r="T27" t="n">
+        <v>500000</v>
+      </c>
+      <c r="U27" t="inlineStr">
+        <is>
+          <t>DQN</t>
+        </is>
+      </c>
+      <c r="V27" t="inlineStr">
+        <is>
+          <t>(delay,)</t>
+        </is>
+      </c>
+      <c r="W27" t="inlineStr">
+        <is>
+          <t>reward_min_delay</t>
+        </is>
+      </c>
+      <c r="X27" t="inlineStr">
+        <is>
+          <t>450000</t>
+        </is>
+      </c>
+      <c r="Y27" t="inlineStr">
+        <is>
+          <t>10000</t>
+        </is>
+      </c>
+      <c r="Z27" t="inlineStr">
+        <is>
+          <t>300000</t>
+        </is>
+      </c>
+      <c r="AA27" t="inlineStr">
+        <is>
+          <t>16:00:06</t>
+        </is>
+      </c>
+      <c r="AB27">
+        <f>HYPERLINK("data/plots/20210516145202.048442/test/20210516145202.048442_metrics.csv", "File")</f>
+        <v/>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
